--- a/scripts/modelsConfig.xlsx
+++ b/scripts/modelsConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>序号，lora唯一标识码，同类型不可重复</t>
   </si>
@@ -78,6 +78,9 @@
   <si>
     <t>testing</t>
   </si>
+  <si>
+    <t>refresh</t>
+  </si>
 </sst>
 </file>
 
@@ -85,11 +88,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,21 +104,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,9 +135,78 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,24 +225,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,67 +246,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,17 +453,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,36 +494,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,153 +523,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,7 +1044,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1218,7 +1221,9 @@
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="3">
         <v>0.7</v>
       </c>

--- a/scripts/modelsConfig.xlsx
+++ b/scripts/modelsConfig.xlsx
@@ -14,36 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
-    <t>序号，lora唯一标识码，同类型不可重复</t>
+    <t>序号，lora唯一标识码，同类型不可重复，
+可使用数字，中文，英文，或者混合标示，输入你容易记住明白的字符</t>
   </si>
   <si>
-    <t>类型 1=lora 2=lyco 3=embedding</t>
+    <t>类型 1=lora 2=lyco 3=embedding
+最新版webui不区分lora和loha了，你可以按照1，2分类，或者都写成lora(1)</t>
   </si>
   <si>
-    <t>lora等模型文件名，可不用带后缀</t>
+    <t>lora等模型文件名，不用带后缀</t>
   </si>
   <si>
     <t>触发提示词，可空</t>
   </si>
   <si>
-    <t>最小权重</t>
+    <t>最小权重
+可为空，空则默认0.4</t>
   </si>
   <si>
-    <t>最大权重</t>
+    <t>最大权重
+可为空，空则默认1.0</t>
   </si>
   <si>
-    <t>默认权重</t>
+    <t>默认权重
+可为空，空则默认0.6</t>
   </si>
   <si>
-    <t>特殊lora，标注为1</t>
+    <t>特殊lora，标注为1
+为特殊lora时，不随机其他prompt</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>civitAI</t>
+    <t>civitAI id</t>
   </si>
   <si>
     <t>fashigirl-v5.5-lora-naivae-64dim</t>
@@ -53,6 +59,9 @@
   </si>
   <si>
     <t>lora示例</t>
+  </si>
+  <si>
+    <t>圣姨</t>
   </si>
   <si>
     <t>st louis epoch5</t>
@@ -77,12 +86,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,6 +100,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,14 +125,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -123,23 +132,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,9 +141,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,10 +156,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,6 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -186,20 +189,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,23 +204,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,37 +262,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,19 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,109 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,8 +453,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,6 +464,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,26 +492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,21 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -537,132 +532,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,33 +681,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1025,7 +1050,9 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1035,32 +1062,33 @@
     <col min="3" max="3" width="36.0769230769231" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="7" max="7" width="9.23076923076923" style="1"/>
+    <col min="8" max="8" width="9.23076923076923" style="2"/>
     <col min="9" max="9" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="135" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1083,16 +1111,16 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>0.4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <v>0.8</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <v>0.6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="I2" t="s">
@@ -1100,38 +1128,38 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>101</v>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
         <v>0.6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <v>0.65</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
@@ -1141,23 +1169,23 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.8</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <v>0.8</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="8"/>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1165,10 +1193,10 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
@@ -1178,19 +1206,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>0.4</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>0.45</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="8"/>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1198,1353 +1226,1308 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="8"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="8"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-    </row>
-    <row r="120" spans="5:8">
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="5:8">
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="5:8">
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="5:8">
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="4"/>
-    </row>
-    <row r="124" spans="5:8">
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="4"/>
-    </row>
-    <row r="125" spans="5:8">
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="5:8">
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="5:8">
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="5:8">
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="5:8">
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="H129" s="4"/>
-    </row>
-    <row r="130" spans="5:8">
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="H130" s="4"/>
-    </row>
-    <row r="131" spans="5:8">
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="H131" s="4"/>
-    </row>
-    <row r="132" spans="5:8">
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="5:8">
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="5:8">
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="H134" s="4"/>
-    </row>
-    <row r="135" spans="5:8">
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="5:8">
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="5:8">
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="H137" s="4"/>
-    </row>
-    <row r="138" spans="5:8">
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="H138" s="4"/>
-    </row>
-    <row r="139" spans="5:8">
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="H139" s="4"/>
-    </row>
-    <row r="140" spans="5:8">
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="H140" s="4"/>
-    </row>
-    <row r="141" spans="5:8">
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="H141" s="4"/>
-    </row>
-    <row r="142" spans="5:8">
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="5:8">
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="5:8">
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="5:8">
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="5:8">
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="5:8">
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="5:8">
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="5:8">
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="H149" s="4"/>
-    </row>
-    <row r="150" spans="5:8">
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="5:8">
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="H151" s="4"/>
-    </row>
-    <row r="152" spans="5:8">
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="5:8">
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="H153" s="4"/>
-    </row>
-    <row r="154" spans="5:8">
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="H154" s="4"/>
-    </row>
-    <row r="155" spans="5:8">
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="H155" s="4"/>
-    </row>
-    <row r="156" spans="5:8">
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="H156" s="4"/>
-    </row>
-    <row r="157" spans="5:8">
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="H157" s="4"/>
-    </row>
-    <row r="158" spans="5:8">
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="H158" s="4"/>
-    </row>
-    <row r="159" spans="5:8">
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="H159" s="4"/>
-    </row>
-    <row r="160" spans="5:8">
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="H160" s="4"/>
-    </row>
-    <row r="161" spans="5:8">
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="H161" s="4"/>
-    </row>
-    <row r="162" spans="5:8">
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="H162" s="4"/>
-    </row>
-    <row r="163" spans="5:8">
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="H163" s="4"/>
-    </row>
-    <row r="164" spans="5:8">
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="H164" s="4"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" spans="5:7">
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="7"/>
+    </row>
+    <row r="121" spans="5:7">
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="7"/>
+    </row>
+    <row r="122" spans="5:7">
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="5:7">
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124" spans="5:7">
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="5:7">
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126" spans="5:7">
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="5:7">
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128" spans="5:6">
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="5:6">
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+    </row>
+    <row r="130" spans="5:6">
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+    </row>
+    <row r="131" spans="5:6">
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+    </row>
+    <row r="132" spans="5:6">
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+    </row>
+    <row r="133" spans="5:6">
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+    </row>
+    <row r="134" spans="5:6">
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+    </row>
+    <row r="135" spans="5:6">
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+    </row>
+    <row r="136" spans="5:6">
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+    </row>
+    <row r="137" spans="5:6">
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+    </row>
+    <row r="138" spans="5:6">
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="5:6">
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="5:6">
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="5:6">
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="5:6">
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+    </row>
+    <row r="143" spans="5:6">
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+    </row>
+    <row r="144" spans="5:6">
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="5:6">
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="5:6">
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+    </row>
+    <row r="147" spans="5:6">
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+    </row>
+    <row r="148" spans="5:6">
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+    </row>
+    <row r="149" spans="5:6">
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+    </row>
+    <row r="150" spans="5:6">
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+    </row>
+    <row r="151" spans="5:6">
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+    </row>
+    <row r="152" spans="5:6">
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+    </row>
+    <row r="153" spans="5:6">
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+    </row>
+    <row r="154" spans="5:6">
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+    </row>
+    <row r="155" spans="5:6">
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+    </row>
+    <row r="156" spans="5:6">
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+    </row>
+    <row r="157" spans="5:6">
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+    </row>
+    <row r="158" spans="5:6">
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+    </row>
+    <row r="159" spans="5:6">
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+    </row>
+    <row r="160" spans="5:6">
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+    </row>
+    <row r="161" spans="5:6">
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+    </row>
+    <row r="162" spans="5:6">
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+    </row>
+    <row r="163" spans="5:6">
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+    </row>
+    <row r="164" spans="5:6">
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/modelsConfig.xlsx
+++ b/scripts/modelsConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>序号，lora唯一标识码，同类型不可重复，
 可使用数字，中文，英文，或者混合标示，输入你容易记住明白的字符</t>
@@ -70,10 +70,19 @@
     <t>stlouis</t>
   </si>
   <si>
+    <t>圣 路易斯</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
     <t>Dreamwave</t>
   </si>
   <si>
     <t>lyco示例</t>
+  </si>
+  <si>
+    <t>ul</t>
   </si>
   <si>
     <t>ulzzang-6500</t>
@@ -89,10 +98,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,6 +133,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -132,18 +148,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,6 +172,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -163,9 +195,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,14 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,26 +241,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,20 +255,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -262,25 +271,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,151 +409,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,15 +473,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +533,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -552,85 +561,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,55 +648,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,7 +1061,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1100,7 +1109,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>666</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1127,7 +1136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1143,13 +1152,14 @@
       <c r="E3" s="7">
         <v>0.6</v>
       </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
+      <c r="F3" s="7"/>
       <c r="G3" s="7">
         <v>0.65</v>
       </c>
       <c r="H3" s="8"/>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
@@ -1162,30 +1172,24 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>100</v>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1199,14 +1203,14 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>1</v>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="7">
@@ -1218,7 +1222,7 @@
       </c>
       <c r="H7" s="8"/>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
